--- a/server/api/public/excel/ketqua.xlsx
+++ b/server/api/public/excel/ketqua.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,27 +402,107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MMT0001</v>
+        <v>12313</v>
       </c>
       <c r="B2" t="str">
         <v>Năm học 2020-2021 - học kỳ I</v>
       </c>
       <c r="C2" t="str">
-        <v>Hồ Giang</v>
+        <v>Tôn Tùng</v>
       </c>
       <c r="D2" t="str">
-        <v>Hồ Giang</v>
+        <v>Nguyễn Thành</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>59CNTT-3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1231</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Năm học 2020-2021 - học kỳ I</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Tôn Tùng</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Nguyễn Thành</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <v>59CNTT-3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>123</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Năm học 2020-2021 - học kỳ I</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Tôn Tùng</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Nguyễn Thành</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>59CNTT-3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>MMT004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Năm học 2020-2021 - học kỳ I</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Quốc Lưu</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Nguyễn Thành</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F5" t="str">
+        <v>59CNTT-3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>MMT004</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Năm học 2020-2021 - học kỳ I</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Quốc Lưu</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Tấn Tài</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
         <v>59CNTT-3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>